--- a/control_os/backup/estoque.xlsx
+++ b/control_os/backup/estoque.xlsx
@@ -3,18 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3A26B7-977A-41DD-905F-52A30C7B4D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA990A0C-F73A-46C1-8BC2-58E7E3B11A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="20490" windowHeight="6030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Produtos" sheetId="1" r:id="rId1"/>
-    <sheet name="logs_new_product" sheetId="4" r:id="rId2"/>
-    <sheet name="controle" sheetId="2" r:id="rId3"/>
-    <sheet name="logs" sheetId="3" r:id="rId4"/>
+    <sheet name="controle" sheetId="2" r:id="rId2"/>
+    <sheet name="logs" sheetId="3" r:id="rId3"/>
+    <sheet name="logs_new_product" sheetId="4" r:id="rId4"/>
+    <sheet name="logs_controle" sheetId="5" r:id="rId5"/>
+    <sheet name="logs_output" sheetId="6" r:id="rId6"/>
+    <sheet name="logs_input" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Produtos!$A$1:$H$520</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Produtos!$A$1:$H$521</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="560">
   <si>
     <t>Código</t>
   </si>
@@ -1645,13 +1648,82 @@
   </si>
   <si>
     <t>item</t>
+  </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>PERSON</t>
+  </si>
+  <si>
+    <t>CAR</t>
+  </si>
+  <si>
+    <t>MODEL</t>
+  </si>
+  <si>
+    <t>QUANTITY</t>
+  </si>
+  <si>
+    <t>ID_ITEM</t>
+  </si>
+  <si>
+    <t>ITEM</t>
+  </si>
+  <si>
+    <t>TYPE_LOG</t>
+  </si>
+  <si>
+    <t>CODE</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>INITIAL_STOCK</t>
+  </si>
+  <si>
+    <t>INPUTS</t>
+  </si>
+  <si>
+    <t>OUTPUT</t>
+  </si>
+  <si>
+    <t>STOCK</t>
+  </si>
+  <si>
+    <t>STOCK_MIN</t>
+  </si>
+  <si>
+    <t>CATEGORY</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>PLATE</t>
+  </si>
+  <si>
+    <t>ID ITEM</t>
+  </si>
+  <si>
+    <t>LOG_TYPE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1672,13 +1744,26 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1693,9 +1778,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1736,8 +1828,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB92F832-BC3D-4792-8364-6D960D491438}" name="Tabela1" displayName="Tabela1" ref="A1:H520" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:H520" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB92F832-BC3D-4792-8364-6D960D491438}" name="Tabela1" displayName="Tabela1" ref="A1:H521" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:H521" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="[153] BATERIA MOURA M48FD"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H520">
     <sortCondition ref="B1:B520"/>
   </sortState>
@@ -1762,8 +1860,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{40B271B2-8EBC-4B06-842D-D6E57D26BFAF}" name="Tabela2" displayName="Tabela2" ref="A1:I2" totalsRowShown="0">
-  <autoFilter ref="A1:I2" xr:uid="{40B271B2-8EBC-4B06-842D-D6E57D26BFAF}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{40B271B2-8EBC-4B06-842D-D6E57D26BFAF}" name="Tabela2" displayName="Tabela2" ref="A1:I3" totalsRowShown="0">
+  <autoFilter ref="A1:I3" xr:uid="{40B271B2-8EBC-4B06-842D-D6E57D26BFAF}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1776,28 +1874,28 @@
   </autoFilter>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{89919C10-2687-42C9-B34B-0D6EE9D41470}" name="data">
-      <calculatedColumnFormula>logs!A1</calculatedColumnFormula>
+      <calculatedColumnFormula>logs!A2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{8118A015-D157-4D16-992A-45431E9FA933}" name="id">
-      <calculatedColumnFormula>logs!B1</calculatedColumnFormula>
+      <calculatedColumnFormula>logs!B2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{9DE479E0-946E-43DD-8C71-DDF7A98666F0}" name="tipo">
-      <calculatedColumnFormula>logs!C1</calculatedColumnFormula>
+      <calculatedColumnFormula>logs!C2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{7A10D3F7-9E22-4F71-9030-60258DC94BF0}" name="mecanico">
-      <calculatedColumnFormula>logs!D1</calculatedColumnFormula>
+      <calculatedColumnFormula>logs!D2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{326816ED-303F-4DBD-A68D-CAB26AD4617E}" name="carro">
-      <calculatedColumnFormula>logs!E1</calculatedColumnFormula>
+      <calculatedColumnFormula>logs!E2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{B84A0471-57E3-4C6A-89C9-F634FFF0B2FF}" name="placa">
-      <calculatedColumnFormula>logs!F1</calculatedColumnFormula>
+      <calculatedColumnFormula>logs!F2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{96F8AFFE-325E-4A50-AB5F-A0D60B9B674C}" name="quantidade">
-      <calculatedColumnFormula>logs!G1</calculatedColumnFormula>
+      <calculatedColumnFormula>logs!G2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{4282DC46-A008-420C-B1A2-6AB49E1C1616}" name="id_item">
-      <calculatedColumnFormula>logs!H1</calculatedColumnFormula>
+      <calculatedColumnFormula>logs!H2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{ACFA902D-4C91-4239-9F89-5B2719424199}" name="item">
       <calculatedColumnFormula>VLOOKUP(Tabela2[[#This Row],[id_item]],Tabela1[],2,FALSE)</calculatedColumnFormula>
@@ -2129,10 +2227,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H520"/>
+  <dimension ref="A1:H521"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C521" sqref="C521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2170,7 +2268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2199,7 +2297,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -2229,7 +2327,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>3</v>
@@ -2260,7 +2358,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2291,7 +2389,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2321,7 +2419,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2351,7 +2449,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2381,7 +2479,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2411,7 +2509,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2441,7 +2539,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2471,7 +2569,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2501,7 +2599,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2531,7 +2629,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2561,7 +2659,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2591,7 +2689,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2621,7 +2719,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2651,7 +2749,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2681,7 +2779,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2711,7 +2809,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2741,7 +2839,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2771,7 +2869,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2801,7 +2899,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2831,7 +2929,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2861,7 +2959,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2891,7 +2989,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2921,7 +3019,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2951,7 +3049,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2981,7 +3079,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3011,7 +3109,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3041,7 +3139,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3071,7 +3169,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -3101,7 +3199,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -3131,7 +3229,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -3161,7 +3259,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -3191,7 +3289,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -3221,7 +3319,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -3251,7 +3349,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -3281,7 +3379,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -3311,7 +3409,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -3342,7 +3440,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3372,7 +3470,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3402,7 +3500,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3432,7 +3530,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3462,7 +3560,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -3492,7 +3590,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -3522,7 +3620,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -3552,7 +3650,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -3582,7 +3680,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -3612,7 +3710,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -3643,7 +3741,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -3673,7 +3771,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -3703,7 +3801,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -3763,7 +3861,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -3793,7 +3891,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -3823,7 +3921,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -3853,7 +3951,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -3883,7 +3981,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -3913,7 +4011,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -3943,7 +4041,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -3973,7 +4071,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -4003,7 +4101,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -4033,7 +4131,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -4063,7 +4161,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -4093,7 +4191,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -4123,7 +4221,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -4153,7 +4251,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" ref="A68:A131" si="1">A67+1</f>
         <v>67</v>
@@ -4183,7 +4281,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -4213,7 +4311,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -4243,7 +4341,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -4273,7 +4371,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -4303,7 +4401,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -4333,7 +4431,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -4363,7 +4461,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -4393,7 +4491,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -4423,7 +4521,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -4453,7 +4551,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -4483,7 +4581,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -4513,7 +4611,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -4543,7 +4641,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -4573,7 +4671,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -4603,7 +4701,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -4633,7 +4731,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -4663,7 +4761,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -4693,7 +4791,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -4723,7 +4821,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -4753,7 +4851,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -4783,7 +4881,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -4813,7 +4911,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -4843,7 +4941,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -4873,7 +4971,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -4903,7 +5001,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -4933,7 +5031,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -4964,7 +5062,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -4994,7 +5092,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -5024,7 +5122,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -5054,7 +5152,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -5084,7 +5182,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -5114,7 +5212,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -5144,7 +5242,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -5174,7 +5272,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -5204,7 +5302,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -5234,7 +5332,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -5264,7 +5362,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -5294,7 +5392,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -5324,7 +5422,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -5354,7 +5452,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -5384,7 +5482,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -5414,7 +5512,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -5444,7 +5542,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -5474,7 +5572,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -5504,7 +5602,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -5534,7 +5632,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -5564,7 +5662,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <f t="shared" si="1"/>
         <v>114</v>
@@ -5594,7 +5692,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <f t="shared" si="1"/>
         <v>115</v>
@@ -5624,7 +5722,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <f t="shared" si="1"/>
         <v>116</v>
@@ -5654,7 +5752,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -5684,7 +5782,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <f t="shared" si="1"/>
         <v>118</v>
@@ -5714,7 +5812,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <f t="shared" si="1"/>
         <v>119</v>
@@ -5744,7 +5842,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -5774,7 +5872,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <f t="shared" si="1"/>
         <v>121</v>
@@ -5804,7 +5902,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <f t="shared" si="1"/>
         <v>122</v>
@@ -5834,7 +5932,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <f t="shared" si="1"/>
         <v>123</v>
@@ -5864,7 +5962,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <f t="shared" si="1"/>
         <v>124</v>
@@ -5894,7 +5992,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <f t="shared" si="1"/>
         <v>125</v>
@@ -5924,7 +6022,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <f t="shared" si="1"/>
         <v>126</v>
@@ -5954,7 +6052,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <f t="shared" si="1"/>
         <v>127</v>
@@ -5984,7 +6082,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <f t="shared" si="1"/>
         <v>128</v>
@@ -6014,7 +6112,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <f t="shared" si="1"/>
         <v>129</v>
@@ -6044,7 +6142,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <f t="shared" si="1"/>
         <v>130</v>
@@ -6074,7 +6172,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <f t="shared" ref="A132:A195" si="2">A131+1</f>
         <v>131</v>
@@ -6104,7 +6202,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -6134,7 +6232,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -6164,7 +6262,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -6194,7 +6292,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -6224,7 +6322,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -6254,7 +6352,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -6285,7 +6383,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -6315,7 +6413,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -6345,7 +6443,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -6375,7 +6473,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -6405,7 +6503,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -6435,7 +6533,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -6465,7 +6563,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -6495,7 +6593,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -6525,7 +6623,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -6555,7 +6653,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -6585,7 +6683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -6616,7 +6714,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -6646,7 +6744,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -6676,7 +6774,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -6706,7 +6804,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -6736,7 +6834,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -6766,7 +6864,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -6796,7 +6894,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -6826,7 +6924,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -6856,7 +6954,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -6886,7 +6984,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -6916,7 +7014,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -6946,7 +7044,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -6976,7 +7074,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -7006,7 +7104,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -7036,7 +7134,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -7066,7 +7164,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -7096,7 +7194,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -7126,7 +7224,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -7156,7 +7254,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -7186,7 +7284,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -7216,7 +7314,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -7246,7 +7344,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -7276,7 +7374,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -7306,7 +7404,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -7336,7 +7434,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -7366,7 +7464,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -7396,7 +7494,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -7426,7 +7524,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -7456,7 +7554,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -7486,7 +7584,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -7516,7 +7614,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -7546,7 +7644,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -7576,7 +7674,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -7606,7 +7704,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -7636,7 +7734,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -7666,7 +7764,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -7696,7 +7794,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -7726,7 +7824,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -7756,7 +7854,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -7786,7 +7884,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -7816,7 +7914,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190">
         <f t="shared" si="2"/>
         <v>189</v>
@@ -7846,7 +7944,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -7876,7 +7974,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192">
         <f t="shared" si="2"/>
         <v>191</v>
@@ -7906,7 +8004,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193">
         <f t="shared" si="2"/>
         <v>192</v>
@@ -7936,7 +8034,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194">
         <f t="shared" si="2"/>
         <v>193</v>
@@ -7966,7 +8064,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195">
         <f t="shared" si="2"/>
         <v>194</v>
@@ -7996,7 +8094,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196">
         <f t="shared" ref="A196:A259" si="3">A195+1</f>
         <v>195</v>
@@ -8026,7 +8124,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197">
         <f t="shared" si="3"/>
         <v>196</v>
@@ -8056,7 +8154,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198">
         <f t="shared" si="3"/>
         <v>197</v>
@@ -8086,7 +8184,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199">
         <f t="shared" si="3"/>
         <v>198</v>
@@ -8116,7 +8214,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200">
         <f t="shared" si="3"/>
         <v>199</v>
@@ -8146,7 +8244,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201">
         <f t="shared" si="3"/>
         <v>200</v>
@@ -8176,7 +8274,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202">
         <f t="shared" si="3"/>
         <v>201</v>
@@ -8206,7 +8304,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203">
         <f t="shared" si="3"/>
         <v>202</v>
@@ -8236,7 +8334,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204">
         <f t="shared" si="3"/>
         <v>203</v>
@@ -8266,7 +8364,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205">
         <f t="shared" si="3"/>
         <v>204</v>
@@ -8296,7 +8394,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206">
         <f t="shared" si="3"/>
         <v>205</v>
@@ -8326,7 +8424,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207">
         <f t="shared" si="3"/>
         <v>206</v>
@@ -8356,7 +8454,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208">
         <f t="shared" si="3"/>
         <v>207</v>
@@ -8386,7 +8484,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209">
         <f t="shared" si="3"/>
         <v>208</v>
@@ -8416,7 +8514,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210">
         <f t="shared" si="3"/>
         <v>209</v>
@@ -8446,7 +8544,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211">
         <f t="shared" si="3"/>
         <v>210</v>
@@ -8476,7 +8574,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212">
         <f t="shared" si="3"/>
         <v>211</v>
@@ -8506,7 +8604,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213">
         <f t="shared" si="3"/>
         <v>212</v>
@@ -8536,7 +8634,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214">
         <f t="shared" si="3"/>
         <v>213</v>
@@ -8566,7 +8664,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215">
         <f t="shared" si="3"/>
         <v>214</v>
@@ -8596,7 +8694,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216">
         <f t="shared" si="3"/>
         <v>215</v>
@@ -8626,7 +8724,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217">
         <f t="shared" si="3"/>
         <v>216</v>
@@ -8656,7 +8754,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218">
         <f t="shared" si="3"/>
         <v>217</v>
@@ -8686,7 +8784,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219">
         <f t="shared" si="3"/>
         <v>218</v>
@@ -8716,7 +8814,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220">
         <f t="shared" si="3"/>
         <v>219</v>
@@ -8746,7 +8844,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221">
         <f t="shared" si="3"/>
         <v>220</v>
@@ -8776,7 +8874,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222">
         <f t="shared" si="3"/>
         <v>221</v>
@@ -8806,7 +8904,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223">
         <f t="shared" si="3"/>
         <v>222</v>
@@ -8836,7 +8934,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224">
         <f t="shared" si="3"/>
         <v>223</v>
@@ -8866,7 +8964,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225">
         <f t="shared" si="3"/>
         <v>224</v>
@@ -8896,7 +8994,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226">
         <f t="shared" si="3"/>
         <v>225</v>
@@ -8926,7 +9024,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227">
         <f t="shared" si="3"/>
         <v>226</v>
@@ -8956,7 +9054,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228">
         <f t="shared" si="3"/>
         <v>227</v>
@@ -8986,7 +9084,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229">
         <f t="shared" si="3"/>
         <v>228</v>
@@ -9016,7 +9114,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230">
         <f t="shared" si="3"/>
         <v>229</v>
@@ -9046,7 +9144,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231">
         <f t="shared" si="3"/>
         <v>230</v>
@@ -9076,7 +9174,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232">
         <f t="shared" si="3"/>
         <v>231</v>
@@ -9106,7 +9204,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233">
         <f t="shared" si="3"/>
         <v>232</v>
@@ -9136,7 +9234,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234">
         <f t="shared" si="3"/>
         <v>233</v>
@@ -9166,7 +9264,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235">
         <f t="shared" si="3"/>
         <v>234</v>
@@ -9196,7 +9294,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236">
         <f t="shared" si="3"/>
         <v>235</v>
@@ -9226,7 +9324,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237">
         <f t="shared" si="3"/>
         <v>236</v>
@@ -9256,7 +9354,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238">
         <f t="shared" si="3"/>
         <v>237</v>
@@ -9286,7 +9384,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239">
         <f t="shared" si="3"/>
         <v>238</v>
@@ -9316,7 +9414,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240">
         <f t="shared" si="3"/>
         <v>239</v>
@@ -9346,7 +9444,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241">
         <f t="shared" si="3"/>
         <v>240</v>
@@ -9376,7 +9474,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242">
         <f t="shared" si="3"/>
         <v>241</v>
@@ -9406,7 +9504,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243">
         <f t="shared" si="3"/>
         <v>242</v>
@@ -9436,7 +9534,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244">
         <f t="shared" si="3"/>
         <v>243</v>
@@ -9466,7 +9564,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245">
         <f t="shared" si="3"/>
         <v>244</v>
@@ -9493,7 +9591,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246">
         <f t="shared" si="3"/>
         <v>245</v>
@@ -9523,7 +9621,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247">
         <f t="shared" si="3"/>
         <v>246</v>
@@ -9553,7 +9651,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248">
         <f t="shared" si="3"/>
         <v>247</v>
@@ -9580,7 +9678,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249">
         <f t="shared" si="3"/>
         <v>248</v>
@@ -9610,7 +9708,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250">
         <f t="shared" si="3"/>
         <v>249</v>
@@ -9640,7 +9738,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251">
         <f t="shared" si="3"/>
         <v>250</v>
@@ -9670,7 +9768,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252">
         <f t="shared" si="3"/>
         <v>251</v>
@@ -9700,7 +9798,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253">
         <f t="shared" si="3"/>
         <v>252</v>
@@ -9730,7 +9828,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254">
         <f t="shared" si="3"/>
         <v>253</v>
@@ -9760,7 +9858,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255">
         <f t="shared" si="3"/>
         <v>254</v>
@@ -9790,7 +9888,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256">
         <f t="shared" si="3"/>
         <v>255</v>
@@ -9820,7 +9918,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257">
         <f t="shared" si="3"/>
         <v>256</v>
@@ -9850,7 +9948,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258">
         <f t="shared" si="3"/>
         <v>257</v>
@@ -9880,7 +9978,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259">
         <f t="shared" si="3"/>
         <v>258</v>
@@ -9910,7 +10008,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260">
         <f t="shared" ref="A260:A323" si="4">A259+1</f>
         <v>259</v>
@@ -9940,7 +10038,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261">
         <f t="shared" si="4"/>
         <v>260</v>
@@ -9970,7 +10068,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262">
         <f t="shared" si="4"/>
         <v>261</v>
@@ -10000,7 +10098,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263">
         <f t="shared" si="4"/>
         <v>262</v>
@@ -10030,7 +10128,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264">
         <f t="shared" si="4"/>
         <v>263</v>
@@ -10060,7 +10158,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265">
         <f t="shared" si="4"/>
         <v>264</v>
@@ -10090,7 +10188,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266">
         <f t="shared" si="4"/>
         <v>265</v>
@@ -10120,7 +10218,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267">
         <f t="shared" si="4"/>
         <v>266</v>
@@ -10150,7 +10248,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268">
         <f t="shared" si="4"/>
         <v>267</v>
@@ -10180,7 +10278,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269">
         <f t="shared" si="4"/>
         <v>268</v>
@@ -10210,7 +10308,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270">
         <f t="shared" si="4"/>
         <v>269</v>
@@ -10240,7 +10338,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271">
         <f t="shared" si="4"/>
         <v>270</v>
@@ -10270,7 +10368,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272">
         <f t="shared" si="4"/>
         <v>271</v>
@@ -10300,7 +10398,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273">
         <f t="shared" si="4"/>
         <v>272</v>
@@ -10330,7 +10428,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274">
         <f t="shared" si="4"/>
         <v>273</v>
@@ -10360,7 +10458,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275">
         <f t="shared" si="4"/>
         <v>274</v>
@@ -10390,7 +10488,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276">
         <f t="shared" si="4"/>
         <v>275</v>
@@ -10420,7 +10518,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277">
         <f t="shared" si="4"/>
         <v>276</v>
@@ -10451,7 +10549,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278">
         <f t="shared" si="4"/>
         <v>277</v>
@@ -10481,7 +10579,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279">
         <f t="shared" si="4"/>
         <v>278</v>
@@ -10511,7 +10609,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280">
         <f t="shared" si="4"/>
         <v>279</v>
@@ -10541,7 +10639,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281">
         <f t="shared" si="4"/>
         <v>280</v>
@@ -10571,7 +10669,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282">
         <f t="shared" si="4"/>
         <v>281</v>
@@ -10601,7 +10699,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283">
         <f t="shared" si="4"/>
         <v>282</v>
@@ -10631,7 +10729,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284">
         <f t="shared" si="4"/>
         <v>283</v>
@@ -10661,7 +10759,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285">
         <f t="shared" si="4"/>
         <v>284</v>
@@ -10691,7 +10789,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286">
         <f t="shared" si="4"/>
         <v>285</v>
@@ -10721,7 +10819,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287">
         <f t="shared" si="4"/>
         <v>286</v>
@@ -10751,7 +10849,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288">
         <f t="shared" si="4"/>
         <v>287</v>
@@ -10782,7 +10880,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289">
         <f t="shared" si="4"/>
         <v>288</v>
@@ -10813,7 +10911,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290">
         <f t="shared" si="4"/>
         <v>289</v>
@@ -10843,7 +10941,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291">
         <f t="shared" si="4"/>
         <v>290</v>
@@ -10873,7 +10971,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292">
         <f t="shared" si="4"/>
         <v>291</v>
@@ -10903,7 +11001,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293">
         <f t="shared" si="4"/>
         <v>292</v>
@@ -10933,7 +11031,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294">
         <f t="shared" si="4"/>
         <v>293</v>
@@ -10963,7 +11061,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295">
         <f t="shared" si="4"/>
         <v>294</v>
@@ -10993,7 +11091,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296">
         <f t="shared" si="4"/>
         <v>295</v>
@@ -11023,7 +11121,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297">
         <f t="shared" si="4"/>
         <v>296</v>
@@ -11053,7 +11151,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298">
         <f t="shared" si="4"/>
         <v>297</v>
@@ -11083,7 +11181,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299">
         <f t="shared" si="4"/>
         <v>298</v>
@@ -11113,7 +11211,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300">
         <f t="shared" si="4"/>
         <v>299</v>
@@ -11143,7 +11241,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301">
         <f t="shared" si="4"/>
         <v>300</v>
@@ -11173,7 +11271,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302">
         <f t="shared" si="4"/>
         <v>301</v>
@@ -11203,7 +11301,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303">
         <f t="shared" si="4"/>
         <v>302</v>
@@ -11233,7 +11331,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304">
         <f t="shared" si="4"/>
         <v>303</v>
@@ -11263,7 +11361,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305">
         <f t="shared" si="4"/>
         <v>304</v>
@@ -11293,7 +11391,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306">
         <f t="shared" si="4"/>
         <v>305</v>
@@ -11323,7 +11421,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307">
         <f t="shared" si="4"/>
         <v>306</v>
@@ -11353,7 +11451,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308">
         <f t="shared" si="4"/>
         <v>307</v>
@@ -11383,7 +11481,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309">
         <f t="shared" si="4"/>
         <v>308</v>
@@ -11414,7 +11512,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310">
         <f t="shared" si="4"/>
         <v>309</v>
@@ -11444,7 +11542,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311">
         <f t="shared" si="4"/>
         <v>310</v>
@@ -11475,7 +11573,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312">
         <f t="shared" si="4"/>
         <v>311</v>
@@ -11505,7 +11603,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313">
         <f t="shared" si="4"/>
         <v>312</v>
@@ -11535,7 +11633,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314">
         <f t="shared" si="4"/>
         <v>313</v>
@@ -11565,7 +11663,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315">
         <f t="shared" si="4"/>
         <v>314</v>
@@ -11595,7 +11693,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316">
         <f t="shared" si="4"/>
         <v>315</v>
@@ -11625,7 +11723,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317">
         <f t="shared" si="4"/>
         <v>316</v>
@@ -11655,7 +11753,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318">
         <f t="shared" si="4"/>
         <v>317</v>
@@ -11685,7 +11783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319">
         <f t="shared" si="4"/>
         <v>318</v>
@@ -11715,7 +11813,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320">
         <f t="shared" si="4"/>
         <v>319</v>
@@ -11745,7 +11843,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321">
         <f t="shared" si="4"/>
         <v>320</v>
@@ -11775,7 +11873,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322">
         <f t="shared" si="4"/>
         <v>321</v>
@@ -11805,7 +11903,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323">
         <f t="shared" si="4"/>
         <v>322</v>
@@ -11835,7 +11933,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324">
         <f t="shared" ref="A324:A387" si="5">A323+1</f>
         <v>323</v>
@@ -11865,7 +11963,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325">
         <f t="shared" si="5"/>
         <v>324</v>
@@ -11895,7 +11993,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326">
         <f t="shared" si="5"/>
         <v>325</v>
@@ -11925,7 +12023,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327">
         <f t="shared" si="5"/>
         <v>326</v>
@@ -11955,7 +12053,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328">
         <f t="shared" si="5"/>
         <v>327</v>
@@ -11985,7 +12083,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329">
         <f t="shared" si="5"/>
         <v>328</v>
@@ -12015,7 +12113,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330">
         <f t="shared" si="5"/>
         <v>329</v>
@@ -12045,7 +12143,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331">
         <f t="shared" si="5"/>
         <v>330</v>
@@ -12075,7 +12173,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332">
         <f t="shared" si="5"/>
         <v>331</v>
@@ -12105,7 +12203,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333">
         <f t="shared" si="5"/>
         <v>332</v>
@@ -12135,7 +12233,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334">
         <f t="shared" si="5"/>
         <v>333</v>
@@ -12165,7 +12263,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335">
         <f t="shared" si="5"/>
         <v>334</v>
@@ -12195,7 +12293,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336">
         <f t="shared" si="5"/>
         <v>335</v>
@@ -12225,7 +12323,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337">
         <f t="shared" si="5"/>
         <v>336</v>
@@ -12255,7 +12353,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338">
         <f t="shared" si="5"/>
         <v>337</v>
@@ -12285,7 +12383,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339">
         <f t="shared" si="5"/>
         <v>338</v>
@@ -12315,7 +12413,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340">
         <f t="shared" si="5"/>
         <v>339</v>
@@ -12345,7 +12443,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341">
         <f t="shared" si="5"/>
         <v>340</v>
@@ -12375,7 +12473,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342">
         <f t="shared" si="5"/>
         <v>341</v>
@@ -12405,7 +12503,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343">
         <f t="shared" si="5"/>
         <v>342</v>
@@ -12435,7 +12533,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344">
         <f t="shared" si="5"/>
         <v>343</v>
@@ -12465,7 +12563,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345">
         <f t="shared" si="5"/>
         <v>344</v>
@@ -12495,7 +12593,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346">
         <f t="shared" si="5"/>
         <v>345</v>
@@ -12525,7 +12623,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347">
         <f t="shared" si="5"/>
         <v>346</v>
@@ -12555,7 +12653,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348">
         <f t="shared" si="5"/>
         <v>347</v>
@@ -12585,7 +12683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349">
         <f t="shared" si="5"/>
         <v>348</v>
@@ -12615,7 +12713,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350">
         <f t="shared" si="5"/>
         <v>349</v>
@@ -12645,7 +12743,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351">
         <f t="shared" si="5"/>
         <v>350</v>
@@ -12675,7 +12773,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352">
         <f t="shared" si="5"/>
         <v>351</v>
@@ -12705,7 +12803,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353">
         <f t="shared" si="5"/>
         <v>352</v>
@@ -12735,7 +12833,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354">
         <f t="shared" si="5"/>
         <v>353</v>
@@ -12765,7 +12863,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355">
         <f t="shared" si="5"/>
         <v>354</v>
@@ -12795,7 +12893,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356">
         <f t="shared" si="5"/>
         <v>355</v>
@@ -12825,7 +12923,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357">
         <f t="shared" si="5"/>
         <v>356</v>
@@ -12855,7 +12953,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358">
         <f t="shared" si="5"/>
         <v>357</v>
@@ -12885,7 +12983,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359">
         <f t="shared" si="5"/>
         <v>358</v>
@@ -12915,7 +13013,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360">
         <f t="shared" si="5"/>
         <v>359</v>
@@ -12945,7 +13043,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361">
         <f t="shared" si="5"/>
         <v>360</v>
@@ -12975,7 +13073,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362">
         <f t="shared" si="5"/>
         <v>361</v>
@@ -13005,7 +13103,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363">
         <f t="shared" si="5"/>
         <v>362</v>
@@ -13035,7 +13133,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364">
         <f t="shared" si="5"/>
         <v>363</v>
@@ -13065,7 +13163,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365">
         <f t="shared" si="5"/>
         <v>364</v>
@@ -13095,7 +13193,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366">
         <f t="shared" si="5"/>
         <v>365</v>
@@ -13125,7 +13223,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367">
         <f t="shared" si="5"/>
         <v>366</v>
@@ -13155,7 +13253,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368">
         <f t="shared" si="5"/>
         <v>367</v>
@@ -13185,7 +13283,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369">
         <f t="shared" si="5"/>
         <v>368</v>
@@ -13215,7 +13313,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370">
         <f t="shared" si="5"/>
         <v>369</v>
@@ -13245,7 +13343,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371">
         <f t="shared" si="5"/>
         <v>370</v>
@@ -13275,7 +13373,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372">
         <f t="shared" si="5"/>
         <v>371</v>
@@ -13305,7 +13403,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373">
         <f t="shared" si="5"/>
         <v>372</v>
@@ -13335,7 +13433,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374">
         <f t="shared" si="5"/>
         <v>373</v>
@@ -13365,7 +13463,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375">
         <f t="shared" si="5"/>
         <v>374</v>
@@ -13395,7 +13493,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376">
         <f t="shared" si="5"/>
         <v>375</v>
@@ -13425,7 +13523,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377">
         <f t="shared" si="5"/>
         <v>376</v>
@@ -13455,7 +13553,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378">
         <f t="shared" si="5"/>
         <v>377</v>
@@ -13485,7 +13583,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379">
         <f t="shared" si="5"/>
         <v>378</v>
@@ -13515,7 +13613,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380">
         <f t="shared" si="5"/>
         <v>379</v>
@@ -13545,7 +13643,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381">
         <f t="shared" si="5"/>
         <v>380</v>
@@ -13575,7 +13673,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382">
         <f t="shared" si="5"/>
         <v>381</v>
@@ -13605,7 +13703,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383">
         <f t="shared" si="5"/>
         <v>382</v>
@@ -13635,7 +13733,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384">
         <f t="shared" si="5"/>
         <v>383</v>
@@ -13665,7 +13763,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385">
         <f t="shared" si="5"/>
         <v>384</v>
@@ -13695,7 +13793,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386">
         <f t="shared" si="5"/>
         <v>385</v>
@@ -13725,7 +13823,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387">
         <f t="shared" si="5"/>
         <v>386</v>
@@ -13755,7 +13853,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388">
         <f t="shared" ref="A388:A451" si="6">A387+1</f>
         <v>387</v>
@@ -13785,7 +13883,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389">
         <f t="shared" si="6"/>
         <v>388</v>
@@ -13815,7 +13913,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390">
         <f t="shared" si="6"/>
         <v>389</v>
@@ -13845,7 +13943,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391">
         <f t="shared" si="6"/>
         <v>390</v>
@@ -13875,7 +13973,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392">
         <f t="shared" si="6"/>
         <v>391</v>
@@ -13905,7 +14003,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393">
         <f t="shared" si="6"/>
         <v>392</v>
@@ -13935,7 +14033,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394">
         <f t="shared" si="6"/>
         <v>393</v>
@@ -13965,7 +14063,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395">
         <f t="shared" si="6"/>
         <v>394</v>
@@ -13995,7 +14093,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396">
         <f t="shared" si="6"/>
         <v>395</v>
@@ -14025,7 +14123,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397">
         <f t="shared" si="6"/>
         <v>396</v>
@@ -14055,7 +14153,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398">
         <f t="shared" si="6"/>
         <v>397</v>
@@ -14085,7 +14183,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399">
         <f t="shared" si="6"/>
         <v>398</v>
@@ -14115,7 +14213,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400">
         <f t="shared" si="6"/>
         <v>399</v>
@@ -14145,7 +14243,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401">
         <f t="shared" si="6"/>
         <v>400</v>
@@ -14175,7 +14273,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402">
         <f t="shared" si="6"/>
         <v>401</v>
@@ -14205,7 +14303,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403">
         <f t="shared" si="6"/>
         <v>402</v>
@@ -14235,7 +14333,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404">
         <f t="shared" si="6"/>
         <v>403</v>
@@ -14265,7 +14363,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405">
         <f t="shared" si="6"/>
         <v>404</v>
@@ -14295,7 +14393,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406">
         <f t="shared" si="6"/>
         <v>405</v>
@@ -14325,7 +14423,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407">
         <f t="shared" si="6"/>
         <v>406</v>
@@ -14355,7 +14453,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408">
         <f t="shared" si="6"/>
         <v>407</v>
@@ -14385,7 +14483,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409">
         <f t="shared" si="6"/>
         <v>408</v>
@@ -14415,7 +14513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410">
         <f t="shared" si="6"/>
         <v>409</v>
@@ -14445,7 +14543,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411">
         <f t="shared" si="6"/>
         <v>410</v>
@@ -14475,7 +14573,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412">
         <f t="shared" si="6"/>
         <v>411</v>
@@ -14505,7 +14603,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413">
         <f t="shared" si="6"/>
         <v>412</v>
@@ -14535,7 +14633,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414">
         <f t="shared" si="6"/>
         <v>413</v>
@@ -14565,7 +14663,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415">
         <f t="shared" si="6"/>
         <v>414</v>
@@ -14595,7 +14693,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416">
         <f t="shared" si="6"/>
         <v>415</v>
@@ -14625,7 +14723,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417">
         <f t="shared" si="6"/>
         <v>416</v>
@@ -14655,7 +14753,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418">
         <f t="shared" si="6"/>
         <v>417</v>
@@ -14685,7 +14783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419">
         <f t="shared" si="6"/>
         <v>418</v>
@@ -14715,7 +14813,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420">
         <f t="shared" si="6"/>
         <v>419</v>
@@ -14745,7 +14843,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421">
         <f t="shared" si="6"/>
         <v>420</v>
@@ -14775,7 +14873,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422">
         <f t="shared" si="6"/>
         <v>421</v>
@@ -14805,7 +14903,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423">
         <f t="shared" si="6"/>
         <v>422</v>
@@ -14835,7 +14933,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424">
         <f t="shared" si="6"/>
         <v>423</v>
@@ -14865,7 +14963,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425">
         <f t="shared" si="6"/>
         <v>424</v>
@@ -14895,7 +14993,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426">
         <f t="shared" si="6"/>
         <v>425</v>
@@ -14925,7 +15023,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427">
         <f t="shared" si="6"/>
         <v>426</v>
@@ -14955,7 +15053,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428">
         <f t="shared" si="6"/>
         <v>427</v>
@@ -14985,7 +15083,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429">
         <f t="shared" si="6"/>
         <v>428</v>
@@ -15015,7 +15113,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430">
         <f t="shared" si="6"/>
         <v>429</v>
@@ -15045,7 +15143,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431">
         <f t="shared" si="6"/>
         <v>430</v>
@@ -15075,7 +15173,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432">
         <f t="shared" si="6"/>
         <v>431</v>
@@ -15105,7 +15203,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433">
         <f t="shared" si="6"/>
         <v>432</v>
@@ -15135,7 +15233,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434">
         <f t="shared" si="6"/>
         <v>433</v>
@@ -15165,7 +15263,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435">
         <f t="shared" si="6"/>
         <v>434</v>
@@ -15195,7 +15293,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436">
         <f t="shared" si="6"/>
         <v>435</v>
@@ -15225,7 +15323,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437">
         <f t="shared" si="6"/>
         <v>436</v>
@@ -15255,7 +15353,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438">
         <f t="shared" si="6"/>
         <v>437</v>
@@ -15285,7 +15383,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439">
         <f t="shared" si="6"/>
         <v>438</v>
@@ -15315,7 +15413,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440">
         <f t="shared" si="6"/>
         <v>439</v>
@@ -15345,7 +15443,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441">
         <f t="shared" si="6"/>
         <v>440</v>
@@ -15375,7 +15473,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442">
         <f t="shared" si="6"/>
         <v>441</v>
@@ -15405,7 +15503,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443">
         <f t="shared" si="6"/>
         <v>442</v>
@@ -15435,7 +15533,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444">
         <f t="shared" si="6"/>
         <v>443</v>
@@ -15465,7 +15563,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445">
         <f t="shared" si="6"/>
         <v>444</v>
@@ -15495,7 +15593,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446">
         <f t="shared" si="6"/>
         <v>445</v>
@@ -15525,7 +15623,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447">
         <f t="shared" si="6"/>
         <v>446</v>
@@ -15555,7 +15653,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448">
         <f t="shared" si="6"/>
         <v>447</v>
@@ -15585,7 +15683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449">
         <f t="shared" si="6"/>
         <v>448</v>
@@ -15615,7 +15713,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450">
         <f t="shared" si="6"/>
         <v>449</v>
@@ -15645,7 +15743,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451">
         <f t="shared" si="6"/>
         <v>450</v>
@@ -15675,7 +15773,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452">
         <f t="shared" ref="A452:A515" si="7">A451+1</f>
         <v>451</v>
@@ -15705,7 +15803,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453">
         <f t="shared" si="7"/>
         <v>452</v>
@@ -15735,7 +15833,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454">
         <f t="shared" si="7"/>
         <v>453</v>
@@ -15765,7 +15863,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455">
         <f t="shared" si="7"/>
         <v>454</v>
@@ -15795,7 +15893,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456">
         <f t="shared" si="7"/>
         <v>455</v>
@@ -15825,7 +15923,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457">
         <f t="shared" si="7"/>
         <v>456</v>
@@ -15855,7 +15953,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458">
         <f t="shared" si="7"/>
         <v>457</v>
@@ -15885,7 +15983,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459">
         <f t="shared" si="7"/>
         <v>458</v>
@@ -15915,7 +16013,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460">
         <f t="shared" si="7"/>
         <v>459</v>
@@ -15945,7 +16043,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461">
         <f t="shared" si="7"/>
         <v>460</v>
@@ -15975,7 +16073,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462">
         <f t="shared" si="7"/>
         <v>461</v>
@@ -16005,7 +16103,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463">
         <f t="shared" si="7"/>
         <v>462</v>
@@ -16035,7 +16133,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464">
         <f t="shared" si="7"/>
         <v>463</v>
@@ -16065,7 +16163,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465">
         <f t="shared" si="7"/>
         <v>464</v>
@@ -16095,7 +16193,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466">
         <f t="shared" si="7"/>
         <v>465</v>
@@ -16125,7 +16223,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467">
         <f t="shared" si="7"/>
         <v>466</v>
@@ -16155,7 +16253,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468">
         <f t="shared" si="7"/>
         <v>467</v>
@@ -16185,7 +16283,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469">
         <f t="shared" si="7"/>
         <v>468</v>
@@ -16215,7 +16313,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470">
         <f t="shared" si="7"/>
         <v>469</v>
@@ -16245,7 +16343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471">
         <f t="shared" si="7"/>
         <v>470</v>
@@ -16276,7 +16374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472">
         <f t="shared" si="7"/>
         <v>471</v>
@@ -16307,7 +16405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473">
         <f t="shared" si="7"/>
         <v>472</v>
@@ -16337,7 +16435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474">
         <f t="shared" si="7"/>
         <v>473</v>
@@ -16367,7 +16465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475">
         <f t="shared" si="7"/>
         <v>474</v>
@@ -16397,7 +16495,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476">
         <f t="shared" si="7"/>
         <v>475</v>
@@ -16427,7 +16525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477">
         <f t="shared" si="7"/>
         <v>476</v>
@@ -16458,7 +16556,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478">
         <f t="shared" si="7"/>
         <v>477</v>
@@ -16488,7 +16586,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479">
         <f t="shared" si="7"/>
         <v>478</v>
@@ -16518,7 +16616,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480">
         <f t="shared" si="7"/>
         <v>479</v>
@@ -16548,7 +16646,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481">
         <f t="shared" si="7"/>
         <v>480</v>
@@ -16579,7 +16677,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482">
         <f t="shared" si="7"/>
         <v>481</v>
@@ -16609,7 +16707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483">
         <f t="shared" si="7"/>
         <v>482</v>
@@ -16639,7 +16737,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484">
         <f t="shared" si="7"/>
         <v>483</v>
@@ -16669,7 +16767,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485">
         <f t="shared" si="7"/>
         <v>484</v>
@@ -16699,7 +16797,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486">
         <f t="shared" si="7"/>
         <v>485</v>
@@ -16730,7 +16828,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487">
         <f t="shared" si="7"/>
         <v>486</v>
@@ -16760,7 +16858,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488">
         <f t="shared" si="7"/>
         <v>487</v>
@@ -16790,7 +16888,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489">
         <f t="shared" si="7"/>
         <v>488</v>
@@ -16820,7 +16918,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490">
         <f t="shared" si="7"/>
         <v>489</v>
@@ -16850,7 +16948,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491">
         <f t="shared" si="7"/>
         <v>490</v>
@@ -16880,7 +16978,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492">
         <f t="shared" si="7"/>
         <v>491</v>
@@ -16910,7 +17008,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493">
         <f t="shared" si="7"/>
         <v>492</v>
@@ -16940,7 +17038,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494">
         <f t="shared" si="7"/>
         <v>493</v>
@@ -16970,7 +17068,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495">
         <f t="shared" si="7"/>
         <v>494</v>
@@ -17000,7 +17098,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496">
         <f t="shared" si="7"/>
         <v>495</v>
@@ -17030,7 +17128,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497">
         <f t="shared" si="7"/>
         <v>496</v>
@@ -17060,7 +17158,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498">
         <f t="shared" si="7"/>
         <v>497</v>
@@ -17090,7 +17188,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499">
         <f t="shared" si="7"/>
         <v>498</v>
@@ -17120,7 +17218,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500">
         <f t="shared" si="7"/>
         <v>499</v>
@@ -17150,7 +17248,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501">
         <f t="shared" si="7"/>
         <v>500</v>
@@ -17180,7 +17278,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502">
         <f t="shared" si="7"/>
         <v>501</v>
@@ -17210,7 +17308,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503">
         <f t="shared" si="7"/>
         <v>502</v>
@@ -17240,7 +17338,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504">
         <f t="shared" si="7"/>
         <v>503</v>
@@ -17270,7 +17368,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505">
         <f t="shared" si="7"/>
         <v>504</v>
@@ -17300,7 +17398,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506">
         <f t="shared" si="7"/>
         <v>505</v>
@@ -17330,7 +17428,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507">
         <f t="shared" si="7"/>
         <v>506</v>
@@ -17360,7 +17458,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508">
         <f t="shared" si="7"/>
         <v>507</v>
@@ -17390,7 +17488,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509">
         <f t="shared" si="7"/>
         <v>508</v>
@@ -17420,7 +17518,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510">
         <f t="shared" si="7"/>
         <v>509</v>
@@ -17450,7 +17548,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511">
         <f t="shared" si="7"/>
         <v>510</v>
@@ -17480,7 +17578,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512">
         <f t="shared" si="7"/>
         <v>511</v>
@@ -17510,7 +17608,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513">
         <f t="shared" si="7"/>
         <v>512</v>
@@ -17540,7 +17638,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514">
         <f t="shared" si="7"/>
         <v>513</v>
@@ -17570,7 +17668,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515">
         <f t="shared" si="7"/>
         <v>514</v>
@@ -17600,7 +17698,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516">
         <f t="shared" ref="A516:A520" si="8">A515+1</f>
         <v>515</v>
@@ -17630,7 +17728,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517">
         <f t="shared" si="8"/>
         <v>516</v>
@@ -17660,7 +17758,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518">
         <f t="shared" si="8"/>
         <v>517</v>
@@ -17690,7 +17788,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519">
         <f t="shared" si="8"/>
         <v>518</v>
@@ -17720,7 +17818,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520">
         <f t="shared" si="8"/>
         <v>519</v>
@@ -17748,6 +17846,21 @@
       </c>
       <c r="H520" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="521" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A521" s="4"/>
+      <c r="D521">
+        <f>SUMIFS(controle!G:G,controle!I:I,Produtos!B521,controle!C:C,"E")</f>
+        <v>0</v>
+      </c>
+      <c r="E521">
+        <f>SUMIFS(controle!G:G,controle!I:I,Produtos!B521,controle!C:C,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="F521">
+        <f>Tabela1[[#This Row],[estoque inicial]]+Tabela1[[#This Row],[entradas]]-Tabela1[[#This Row],[saidas]]</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -17761,23 +17874,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA30960A-D248-4AA8-9B7C-43975A372518}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69918495-AC0B-495A-A6C1-09AC6D1665B2}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17819,38 +17920,76 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
-        <f>logs!A1</f>
+        <f>logs!A2</f>
         <v>0</v>
       </c>
       <c r="B2">
-        <f>logs!B1</f>
+        <f>logs!B2</f>
         <v>0</v>
       </c>
       <c r="C2">
-        <f>logs!C1</f>
+        <f>logs!C2</f>
         <v>0</v>
       </c>
       <c r="D2">
-        <f>logs!D1</f>
+        <f>logs!D2</f>
         <v>0</v>
       </c>
       <c r="E2">
-        <f>logs!E1</f>
+        <f>logs!E2</f>
         <v>0</v>
       </c>
       <c r="F2">
-        <f>logs!F1</f>
+        <f>logs!F2</f>
         <v>0</v>
       </c>
       <c r="G2">
-        <f>logs!G1</f>
+        <f>logs!G2</f>
         <v>0</v>
       </c>
       <c r="H2">
-        <f>logs!H1</f>
+        <f>logs!H2</f>
         <v>0</v>
       </c>
       <c r="I2" t="e">
+        <f>VLOOKUP(Tabela2[[#This Row],[id_item]],Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>logs!A3</f>
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <f>logs!B3</f>
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f>logs!C3</f>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f>logs!D3</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>logs!E3</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>logs!F3</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f>logs!G3</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f>logs!H3</f>
+        <v>0</v>
+      </c>
+      <c r="I3" t="e">
         <f>VLOOKUP(Tabela2[[#This Row],[id_item]],Tabela1[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -17863,14 +18002,2621 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6521093-49C9-4382-92B7-754F12446E7F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I2" t="e">
+        <f>VLOOKUP(H2,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I3" t="e">
+        <f>VLOOKUP(H3,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I4" t="e">
+        <f>VLOOKUP(H4,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I5" t="e">
+        <f>VLOOKUP(H5,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I6" t="e">
+        <f>VLOOKUP(H6,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I7" t="e">
+        <f>VLOOKUP(H7,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I8" t="e">
+        <f>VLOOKUP(H8,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I9" t="e">
+        <f>VLOOKUP(H9,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I10" t="e">
+        <f>VLOOKUP(H10,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I11" t="e">
+        <f>VLOOKUP(H11,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I12" t="e">
+        <f>VLOOKUP(H12,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I13" t="e">
+        <f>VLOOKUP(H13,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I14" t="e">
+        <f>VLOOKUP(H14,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I15" t="e">
+        <f>VLOOKUP(H15,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I16" t="e">
+        <f>VLOOKUP(H16,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I17" t="e">
+        <f>VLOOKUP(H17,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I18" t="e">
+        <f>VLOOKUP(H18,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I19" t="e">
+        <f>VLOOKUP(H19,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I20" t="e">
+        <f>VLOOKUP(H20,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I21" t="e">
+        <f>VLOOKUP(H21,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I22" t="e">
+        <f>VLOOKUP(H22,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I23" t="e">
+        <f>VLOOKUP(H23,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I24" t="e">
+        <f>VLOOKUP(H24,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I25" t="e">
+        <f>VLOOKUP(H25,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I26" t="e">
+        <f>VLOOKUP(H26,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I27" t="e">
+        <f>VLOOKUP(H27,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I28" t="e">
+        <f>VLOOKUP(H28,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I29" t="e">
+        <f>VLOOKUP(H29,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I30" t="e">
+        <f>VLOOKUP(H30,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I31" t="e">
+        <f>VLOOKUP(H31,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I32" t="e">
+        <f>VLOOKUP(H32,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="33" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I33" t="e">
+        <f>VLOOKUP(H33,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="34" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I34" t="e">
+        <f>VLOOKUP(H34,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I35" t="e">
+        <f>VLOOKUP(H35,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="36" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I36" t="e">
+        <f>VLOOKUP(H36,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="37" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I37" t="e">
+        <f>VLOOKUP(H37,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="38" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I38" t="e">
+        <f>VLOOKUP(H38,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="39" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I39" t="e">
+        <f>VLOOKUP(H39,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="40" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I40" t="e">
+        <f>VLOOKUP(H40,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="41" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I41" t="e">
+        <f>VLOOKUP(H41,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="42" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I42" t="e">
+        <f>VLOOKUP(H42,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="43" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I43" t="e">
+        <f>VLOOKUP(H43,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="44" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I44" t="e">
+        <f>VLOOKUP(H44,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="45" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I45" t="e">
+        <f>VLOOKUP(H45,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="46" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I46" t="e">
+        <f>VLOOKUP(H46,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="47" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I47" t="e">
+        <f>VLOOKUP(H47,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="48" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I48" t="e">
+        <f>VLOOKUP(H48,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="49" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I49" t="e">
+        <f>VLOOKUP(H49,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="50" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I50" t="e">
+        <f>VLOOKUP(H50,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="51" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I51" t="e">
+        <f>VLOOKUP(H51,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="52" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I52" t="e">
+        <f>VLOOKUP(H52,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="53" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I53" t="e">
+        <f>VLOOKUP(H53,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="54" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I54" t="e">
+        <f>VLOOKUP(H54,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="55" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I55" t="e">
+        <f>VLOOKUP(H55,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="56" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I56" t="e">
+        <f>VLOOKUP(H56,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="57" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I57" t="e">
+        <f>VLOOKUP(H57,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="58" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I58" t="e">
+        <f>VLOOKUP(H58,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="59" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I59" t="e">
+        <f>VLOOKUP(H59,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="60" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I60" t="e">
+        <f>VLOOKUP(H60,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="61" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I61" t="e">
+        <f>VLOOKUP(H61,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="62" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I62" t="e">
+        <f>VLOOKUP(H62,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="63" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I63" t="e">
+        <f>VLOOKUP(H63,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="64" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I64" t="e">
+        <f>VLOOKUP(H64,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="65" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I65" t="e">
+        <f>VLOOKUP(H65,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="66" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I66" t="e">
+        <f>VLOOKUP(H66,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="67" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I67" t="e">
+        <f>VLOOKUP(H67,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="68" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I68" t="e">
+        <f>VLOOKUP(H68,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="69" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I69" t="e">
+        <f>VLOOKUP(H69,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="70" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I70" t="e">
+        <f>VLOOKUP(H70,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="71" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I71" t="e">
+        <f>VLOOKUP(H71,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="72" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I72" t="e">
+        <f>VLOOKUP(H72,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="73" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I73" t="e">
+        <f>VLOOKUP(H73,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="74" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I74" t="e">
+        <f>VLOOKUP(H74,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="75" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I75" t="e">
+        <f>VLOOKUP(H75,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="76" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I76" t="e">
+        <f>VLOOKUP(H76,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="77" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I77" t="e">
+        <f>VLOOKUP(H77,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="78" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I78" t="e">
+        <f>VLOOKUP(H78,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="79" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I79" t="e">
+        <f>VLOOKUP(H79,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="80" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I80" t="e">
+        <f>VLOOKUP(H80,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="81" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I81" t="e">
+        <f>VLOOKUP(H81,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="82" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I82" t="e">
+        <f>VLOOKUP(H82,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="83" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I83" t="e">
+        <f>VLOOKUP(H83,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="84" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I84" t="e">
+        <f>VLOOKUP(H84,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="85" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I85" t="e">
+        <f>VLOOKUP(H85,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="86" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I86" t="e">
+        <f>VLOOKUP(H86,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="87" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I87" t="e">
+        <f>VLOOKUP(H87,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="88" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I88" t="e">
+        <f>VLOOKUP(H88,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="89" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I89" t="e">
+        <f>VLOOKUP(H89,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="90" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I90" t="e">
+        <f>VLOOKUP(H90,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="91" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I91" t="e">
+        <f>VLOOKUP(H91,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="92" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I92" t="e">
+        <f>VLOOKUP(H92,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="93" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I93" t="e">
+        <f>VLOOKUP(H93,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="94" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I94" t="e">
+        <f>VLOOKUP(H94,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="95" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I95" t="e">
+        <f>VLOOKUP(H95,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="96" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I96" t="e">
+        <f>VLOOKUP(H96,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="97" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I97" t="e">
+        <f>VLOOKUP(H97,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="98" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I98" t="e">
+        <f>VLOOKUP(H98,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="99" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I99" t="e">
+        <f>VLOOKUP(H99,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="100" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I100" t="e">
+        <f>VLOOKUP(H100,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA30960A-D248-4AA8-9B7C-43975A372518}">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A58F6770-4940-4198-A45C-8C10C23C7ADE}">
+  <dimension ref="A1:I100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I2" t="e">
+        <f>VLOOKUP(H2,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I3" t="e">
+        <f>VLOOKUP(H3,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I4" t="e">
+        <f>VLOOKUP(H4,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I5" t="e">
+        <f>VLOOKUP(H5,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I6" t="e">
+        <f>VLOOKUP(H6,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I7" t="e">
+        <f>VLOOKUP(H7,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I8" t="e">
+        <f>VLOOKUP(H8,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I9" t="e">
+        <f>VLOOKUP(H9,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I10" t="e">
+        <f>VLOOKUP(H10,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I11" t="e">
+        <f>VLOOKUP(H11,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I12" t="e">
+        <f>VLOOKUP(H12,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I13" t="e">
+        <f>VLOOKUP(H13,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I14" t="e">
+        <f>VLOOKUP(H14,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I15" t="e">
+        <f>VLOOKUP(H15,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I16" t="e">
+        <f>VLOOKUP(H16,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I17" t="e">
+        <f>VLOOKUP(H17,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I18" t="e">
+        <f>VLOOKUP(H18,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I19" t="e">
+        <f>VLOOKUP(H19,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I20" t="e">
+        <f>VLOOKUP(H20,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I21" t="e">
+        <f>VLOOKUP(H21,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I22" t="e">
+        <f>VLOOKUP(H22,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I23" t="e">
+        <f>VLOOKUP(H23,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I24" t="e">
+        <f>VLOOKUP(H24,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I25" t="e">
+        <f>VLOOKUP(H25,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I26" t="e">
+        <f>VLOOKUP(H26,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I27" t="e">
+        <f>VLOOKUP(H27,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I28" t="e">
+        <f>VLOOKUP(H28,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I29" t="e">
+        <f>VLOOKUP(H29,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I30" t="e">
+        <f>VLOOKUP(H30,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I31" t="e">
+        <f>VLOOKUP(H31,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I32" t="e">
+        <f>VLOOKUP(H32,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="33" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I33" t="e">
+        <f>VLOOKUP(H33,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="34" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I34" t="e">
+        <f>VLOOKUP(H34,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I35" t="e">
+        <f>VLOOKUP(H35,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="36" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I36" t="e">
+        <f>VLOOKUP(H36,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="37" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I37" t="e">
+        <f>VLOOKUP(H37,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="38" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I38" t="e">
+        <f>VLOOKUP(H38,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="39" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I39" t="e">
+        <f>VLOOKUP(H39,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="40" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I40" t="e">
+        <f>VLOOKUP(H40,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="41" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I41" t="e">
+        <f>VLOOKUP(H41,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="42" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I42" t="e">
+        <f>VLOOKUP(H42,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="43" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I43" t="e">
+        <f>VLOOKUP(H43,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="44" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I44" t="e">
+        <f>VLOOKUP(H44,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="45" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I45" t="e">
+        <f>VLOOKUP(H45,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="46" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I46" t="e">
+        <f>VLOOKUP(H46,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="47" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I47" t="e">
+        <f>VLOOKUP(H47,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="48" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I48" t="e">
+        <f>VLOOKUP(H48,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="49" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I49" t="e">
+        <f>VLOOKUP(H49,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="50" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I50" t="e">
+        <f>VLOOKUP(H50,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="51" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I51" t="e">
+        <f>VLOOKUP(H51,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="52" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I52" t="e">
+        <f>VLOOKUP(H52,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="53" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I53" t="e">
+        <f>VLOOKUP(H53,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="54" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I54" t="e">
+        <f>VLOOKUP(H54,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="55" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I55" t="e">
+        <f>VLOOKUP(H55,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="56" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I56" t="e">
+        <f>VLOOKUP(H56,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="57" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I57" t="e">
+        <f>VLOOKUP(H57,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="58" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I58" t="e">
+        <f>VLOOKUP(H58,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="59" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I59" t="e">
+        <f>VLOOKUP(H59,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="60" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I60" t="e">
+        <f>VLOOKUP(H60,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="61" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I61" t="e">
+        <f>VLOOKUP(H61,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="62" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I62" t="e">
+        <f>VLOOKUP(H62,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="63" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I63" t="e">
+        <f>VLOOKUP(H63,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="64" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I64" t="e">
+        <f>VLOOKUP(H64,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="65" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I65" t="e">
+        <f>VLOOKUP(H65,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="66" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I66" t="e">
+        <f>VLOOKUP(H66,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="67" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I67" t="e">
+        <f>VLOOKUP(H67,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="68" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I68" t="e">
+        <f>VLOOKUP(H68,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="69" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I69" t="e">
+        <f>VLOOKUP(H69,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="70" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I70" t="e">
+        <f>VLOOKUP(H70,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="71" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I71" t="e">
+        <f>VLOOKUP(H71,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="72" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I72" t="e">
+        <f>VLOOKUP(H72,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="73" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I73" t="e">
+        <f>VLOOKUP(H73,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="74" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I74" t="e">
+        <f>VLOOKUP(H74,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="75" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I75" t="e">
+        <f>VLOOKUP(H75,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="76" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I76" t="e">
+        <f>VLOOKUP(H76,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="77" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I77" t="e">
+        <f>VLOOKUP(H77,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="78" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I78" t="e">
+        <f>VLOOKUP(H78,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="79" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I79" t="e">
+        <f>VLOOKUP(H79,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="80" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I80" t="e">
+        <f>VLOOKUP(H80,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="81" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I81" t="e">
+        <f>VLOOKUP(H81,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="82" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I82" t="e">
+        <f>VLOOKUP(H82,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="83" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I83" t="e">
+        <f>VLOOKUP(H83,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="84" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I84" t="e">
+        <f>VLOOKUP(H84,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="85" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I85" t="e">
+        <f>VLOOKUP(H85,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="86" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I86" t="e">
+        <f>VLOOKUP(H86,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="87" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I87" t="e">
+        <f>VLOOKUP(H87,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="88" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I88" t="e">
+        <f>VLOOKUP(H88,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="89" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I89" t="e">
+        <f>VLOOKUP(H89,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="90" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I90" t="e">
+        <f>VLOOKUP(H90,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="91" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I91" t="e">
+        <f>VLOOKUP(H91,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="92" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I92" t="e">
+        <f>VLOOKUP(H92,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="93" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I93" t="e">
+        <f>VLOOKUP(H93,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="94" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I94" t="e">
+        <f>VLOOKUP(H94,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="95" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I95" t="e">
+        <f>VLOOKUP(H95,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="96" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I96" t="e">
+        <f>VLOOKUP(H96,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="97" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I97" t="e">
+        <f>VLOOKUP(H97,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="98" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I98" t="e">
+        <f>VLOOKUP(H98,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="99" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I99" t="e">
+        <f>VLOOKUP(H99,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="100" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I100" t="e">
+        <f>VLOOKUP(H100,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E80BB50B-1586-4E9D-B701-6F621B0AADCE}">
+  <dimension ref="A1:J100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I2" t="e">
+        <f>VLOOKUP(H2,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I3" t="e">
+        <f>VLOOKUP(H3,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I4" t="e">
+        <f>VLOOKUP(H4,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I5" t="e">
+        <f>VLOOKUP(H5,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I6" t="e">
+        <f>VLOOKUP(H6,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I7" t="e">
+        <f>VLOOKUP(H7,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I8" t="e">
+        <f>VLOOKUP(H8,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I9" t="e">
+        <f>VLOOKUP(H9,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I10" t="e">
+        <f>VLOOKUP(H10,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I11" t="e">
+        <f>VLOOKUP(H11,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I12" t="e">
+        <f>VLOOKUP(H12,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I13" t="e">
+        <f>VLOOKUP(H13,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I14" t="e">
+        <f>VLOOKUP(H14,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I15" t="e">
+        <f>VLOOKUP(H15,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I16" t="e">
+        <f>VLOOKUP(H16,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I17" t="e">
+        <f>VLOOKUP(H17,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I18" t="e">
+        <f>VLOOKUP(H18,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I19" t="e">
+        <f>VLOOKUP(H19,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I20" t="e">
+        <f>VLOOKUP(H20,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I21" t="e">
+        <f>VLOOKUP(H21,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I22" t="e">
+        <f>VLOOKUP(H22,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I23" t="e">
+        <f>VLOOKUP(H23,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I24" t="e">
+        <f>VLOOKUP(H24,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I25" t="e">
+        <f>VLOOKUP(H25,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I26" t="e">
+        <f>VLOOKUP(H26,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I27" t="e">
+        <f>VLOOKUP(H27,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I28" t="e">
+        <f>VLOOKUP(H28,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I29" t="e">
+        <f>VLOOKUP(H29,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I30" t="e">
+        <f>VLOOKUP(H30,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I31" t="e">
+        <f>VLOOKUP(H31,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I32" t="e">
+        <f>VLOOKUP(H32,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="33" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I33" t="e">
+        <f>VLOOKUP(H33,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="34" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I34" t="e">
+        <f>VLOOKUP(H34,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I35" t="e">
+        <f>VLOOKUP(H35,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="36" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I36" t="e">
+        <f>VLOOKUP(H36,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="37" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I37" t="e">
+        <f>VLOOKUP(H37,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="38" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I38" t="e">
+        <f>VLOOKUP(H38,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="39" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I39" t="e">
+        <f>VLOOKUP(H39,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="40" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I40" t="e">
+        <f>VLOOKUP(H40,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="41" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I41" t="e">
+        <f>VLOOKUP(H41,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="42" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I42" t="e">
+        <f>VLOOKUP(H42,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="43" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I43" t="e">
+        <f>VLOOKUP(H43,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="44" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I44" t="e">
+        <f>VLOOKUP(H44,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="45" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I45" t="e">
+        <f>VLOOKUP(H45,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="46" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I46" t="e">
+        <f>VLOOKUP(H46,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="47" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I47" t="e">
+        <f>VLOOKUP(H47,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="48" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I48" t="e">
+        <f>VLOOKUP(H48,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="49" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I49" t="e">
+        <f>VLOOKUP(H49,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="50" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I50" t="e">
+        <f>VLOOKUP(H50,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="51" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I51" t="e">
+        <f>VLOOKUP(H51,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="52" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I52" t="e">
+        <f>VLOOKUP(H52,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="53" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I53" t="e">
+        <f>VLOOKUP(H53,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="54" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I54" t="e">
+        <f>VLOOKUP(H54,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="55" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I55" t="e">
+        <f>VLOOKUP(H55,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="56" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I56" t="e">
+        <f>VLOOKUP(H56,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="57" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I57" t="e">
+        <f>VLOOKUP(H57,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="58" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I58" t="e">
+        <f>VLOOKUP(H58,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="59" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I59" t="e">
+        <f>VLOOKUP(H59,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="60" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I60" t="e">
+        <f>VLOOKUP(H60,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="61" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I61" t="e">
+        <f>VLOOKUP(H61,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="62" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I62" t="e">
+        <f>VLOOKUP(H62,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="63" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I63" t="e">
+        <f>VLOOKUP(H63,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="64" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I64" t="e">
+        <f>VLOOKUP(H64,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="65" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I65" t="e">
+        <f>VLOOKUP(H65,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="66" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I66" t="e">
+        <f>VLOOKUP(H66,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="67" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I67" t="e">
+        <f>VLOOKUP(H67,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="68" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I68" t="e">
+        <f>VLOOKUP(H68,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="69" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I69" t="e">
+        <f>VLOOKUP(H69,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="70" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I70" t="e">
+        <f>VLOOKUP(H70,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="71" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I71" t="e">
+        <f>VLOOKUP(H71,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="72" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I72" t="e">
+        <f>VLOOKUP(H72,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="73" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I73" t="e">
+        <f>VLOOKUP(H73,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="74" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I74" t="e">
+        <f>VLOOKUP(H74,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="75" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I75" t="e">
+        <f>VLOOKUP(H75,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="76" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I76" t="e">
+        <f>VLOOKUP(H76,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="77" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I77" t="e">
+        <f>VLOOKUP(H77,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="78" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I78" t="e">
+        <f>VLOOKUP(H78,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="79" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I79" t="e">
+        <f>VLOOKUP(H79,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="80" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I80" t="e">
+        <f>VLOOKUP(H80,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="81" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I81" t="e">
+        <f>VLOOKUP(H81,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="82" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I82" t="e">
+        <f>VLOOKUP(H82,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="83" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I83" t="e">
+        <f>VLOOKUP(H83,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="84" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I84" t="e">
+        <f>VLOOKUP(H84,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="85" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I85" t="e">
+        <f>VLOOKUP(H85,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="86" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I86" t="e">
+        <f>VLOOKUP(H86,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="87" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I87" t="e">
+        <f>VLOOKUP(H87,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="88" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I88" t="e">
+        <f>VLOOKUP(H88,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="89" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I89" t="e">
+        <f>VLOOKUP(H89,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="90" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I90" t="e">
+        <f>VLOOKUP(H90,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="91" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I91" t="e">
+        <f>VLOOKUP(H91,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="92" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I92" t="e">
+        <f>VLOOKUP(H92,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="93" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I93" t="e">
+        <f>VLOOKUP(H93,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="94" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I94" t="e">
+        <f>VLOOKUP(H94,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="95" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I95" t="e">
+        <f>VLOOKUP(H95,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="96" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I96" t="e">
+        <f>VLOOKUP(H96,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="97" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I97" t="e">
+        <f>VLOOKUP(H97,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="98" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I98" t="e">
+        <f>VLOOKUP(H98,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="99" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I99" t="e">
+        <f>VLOOKUP(H99,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="100" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I100" t="e">
+        <f>VLOOKUP(H100,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04113AA-90AA-492C-AC52-F2A33F1BB96C}">
+  <dimension ref="A1:J100"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="34.140625" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I2" t="e">
+        <f>VLOOKUP(H2,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I3" t="e">
+        <f>VLOOKUP(H3,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I4" t="e">
+        <f>VLOOKUP(H4,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I5" t="e">
+        <f>VLOOKUP(H5,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I6" t="e">
+        <f>VLOOKUP(H6,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I7" t="e">
+        <f>VLOOKUP(H7,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I8" t="e">
+        <f>VLOOKUP(H8,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I9" t="e">
+        <f>VLOOKUP(H9,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I10" t="e">
+        <f>VLOOKUP(H10,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I11" t="e">
+        <f>VLOOKUP(H11,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I12" t="e">
+        <f>VLOOKUP(H12,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I13" t="e">
+        <f>VLOOKUP(H13,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I14" t="e">
+        <f>VLOOKUP(H14,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I15" t="e">
+        <f>VLOOKUP(H15,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I16" t="e">
+        <f>VLOOKUP(H16,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I17" t="e">
+        <f>VLOOKUP(H17,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I18" t="e">
+        <f>VLOOKUP(H18,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I19" t="e">
+        <f>VLOOKUP(H19,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I20" t="e">
+        <f>VLOOKUP(H20,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I21" t="e">
+        <f>VLOOKUP(H21,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I22" t="e">
+        <f>VLOOKUP(H22,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I23" t="e">
+        <f>VLOOKUP(H23,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I24" t="e">
+        <f>VLOOKUP(H24,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I25" t="e">
+        <f>VLOOKUP(H25,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I26" t="e">
+        <f>VLOOKUP(H26,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I27" t="e">
+        <f>VLOOKUP(H27,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I28" t="e">
+        <f>VLOOKUP(H28,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I29" t="e">
+        <f>VLOOKUP(H29,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I30" t="e">
+        <f>VLOOKUP(H30,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I31" t="e">
+        <f>VLOOKUP(H31,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I32" t="e">
+        <f>VLOOKUP(H32,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="33" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I33" t="e">
+        <f>VLOOKUP(H33,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="34" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I34" t="e">
+        <f>VLOOKUP(H34,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I35" t="e">
+        <f>VLOOKUP(H35,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="36" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I36" t="e">
+        <f>VLOOKUP(H36,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="37" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I37" t="e">
+        <f>VLOOKUP(H37,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="38" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I38" t="e">
+        <f>VLOOKUP(H38,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="39" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I39" t="e">
+        <f>VLOOKUP(H39,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="40" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I40" t="e">
+        <f>VLOOKUP(H40,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="41" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I41" t="e">
+        <f>VLOOKUP(H41,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="42" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I42" t="e">
+        <f>VLOOKUP(H42,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="43" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I43" t="e">
+        <f>VLOOKUP(H43,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="44" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I44" t="e">
+        <f>VLOOKUP(H44,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="45" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I45" t="e">
+        <f>VLOOKUP(H45,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="46" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I46" t="e">
+        <f>VLOOKUP(H46,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="47" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I47" t="e">
+        <f>VLOOKUP(H47,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="48" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I48" t="e">
+        <f>VLOOKUP(H48,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="49" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I49" t="e">
+        <f>VLOOKUP(H49,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="50" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I50" t="e">
+        <f>VLOOKUP(H50,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="51" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I51" t="e">
+        <f>VLOOKUP(H51,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="52" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I52" t="e">
+        <f>VLOOKUP(H52,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="53" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I53" t="e">
+        <f>VLOOKUP(H53,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="54" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I54" t="e">
+        <f>VLOOKUP(H54,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="55" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I55" t="e">
+        <f>VLOOKUP(H55,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="56" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I56" t="e">
+        <f>VLOOKUP(H56,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="57" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I57" t="e">
+        <f>VLOOKUP(H57,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="58" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I58" t="e">
+        <f>VLOOKUP(H58,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="59" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I59" t="e">
+        <f>VLOOKUP(H59,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="60" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I60" t="e">
+        <f>VLOOKUP(H60,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="61" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I61" t="e">
+        <f>VLOOKUP(H61,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="62" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I62" t="e">
+        <f>VLOOKUP(H62,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="63" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I63" t="e">
+        <f>VLOOKUP(H63,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="64" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I64" t="e">
+        <f>VLOOKUP(H64,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="65" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I65" t="e">
+        <f>VLOOKUP(H65,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="66" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I66" t="e">
+        <f>VLOOKUP(H66,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="67" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I67" t="e">
+        <f>VLOOKUP(H67,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="68" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I68" t="e">
+        <f>VLOOKUP(H68,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="69" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I69" t="e">
+        <f>VLOOKUP(H69,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="70" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I70" t="e">
+        <f>VLOOKUP(H70,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="71" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I71" t="e">
+        <f>VLOOKUP(H71,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="72" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I72" t="e">
+        <f>VLOOKUP(H72,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="73" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I73" t="e">
+        <f>VLOOKUP(H73,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="74" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I74" t="e">
+        <f>VLOOKUP(H74,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="75" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I75" t="e">
+        <f>VLOOKUP(H75,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="76" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I76" t="e">
+        <f>VLOOKUP(H76,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="77" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I77" t="e">
+        <f>VLOOKUP(H77,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="78" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I78" t="e">
+        <f>VLOOKUP(H78,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="79" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I79" t="e">
+        <f>VLOOKUP(H79,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="80" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I80" t="e">
+        <f>VLOOKUP(H80,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="81" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I81" t="e">
+        <f>VLOOKUP(H81,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="82" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I82" t="e">
+        <f>VLOOKUP(H82,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="83" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I83" t="e">
+        <f>VLOOKUP(H83,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="84" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I84" t="e">
+        <f>VLOOKUP(H84,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="85" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I85" t="e">
+        <f>VLOOKUP(H85,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="86" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I86" t="e">
+        <f>VLOOKUP(H86,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="87" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I87" t="e">
+        <f>VLOOKUP(H87,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="88" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I88" t="e">
+        <f>VLOOKUP(H88,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="89" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I89" t="e">
+        <f>VLOOKUP(H89,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="90" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I90" t="e">
+        <f>VLOOKUP(H90,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="91" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I91" t="e">
+        <f>VLOOKUP(H91,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="92" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I92" t="e">
+        <f>VLOOKUP(H92,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="93" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I93" t="e">
+        <f>VLOOKUP(H93,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="94" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I94" t="e">
+        <f>VLOOKUP(H94,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="95" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I95" t="e">
+        <f>VLOOKUP(H95,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="96" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I96" t="e">
+        <f>VLOOKUP(H96,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="97" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I97" t="e">
+        <f>VLOOKUP(H97,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="98" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I98" t="e">
+        <f>VLOOKUP(H98,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="99" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I99" t="e">
+        <f>VLOOKUP(H99,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="100" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I100" t="e">
+        <f>VLOOKUP(H100,Tabela1[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>